--- a/target/test-classes/org/Automation_Project/demoQA_Resources/TestData.xlsx
+++ b/target/test-classes/org/Automation_Project/demoQA_Resources/TestData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Amit</t>
   </si>
@@ -48,23 +48,115 @@
     <t>Noida</t>
   </si>
   <si>
-    <t>Pras</t>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Emai</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>22/01/1992</t>
+  </si>
+  <si>
+    <t>amitv232.mail.com</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>27/01/1992</t>
+  </si>
+  <si>
+    <t>Akki</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>aki@gmail.com</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Dipika</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>DP@gmail.com</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Music</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,13 +176,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,52 +466,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>8080808080</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -423,28 +524,141 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>8080808080</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>8080808080</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>9090909090</v>
+      </c>
+      <c r="F4" s="2">
+        <v>34037</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>8989900908</v>
+      </c>
+      <c r="F5" s="2">
+        <v>33092</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>